--- a/final_DA_Assesment.xlsx
+++ b/final_DA_Assesment.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
-  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaa/Desktop/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7C31C04-CAE7-5B41-849E-91153B297A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7386F9EB-2C33-674B-A877-4107CE090D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="5" r:id="rId1"/>
@@ -21,11 +21,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'page-1_table-1'!$A$1:$I$48</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">data!$A$1:$I$48</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'data (2)'!$A$1:$A$18</definedName>
-    <definedName name="Slicer_Account_Code1">#N/A</definedName>
+    <definedName name="Slicer_Account_Code">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -43,6 +43,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -50,19 +51,8 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{5FC6BC86-CE81-314C-8912-D02988FC668E}" keepAlive="1" name="Query - data" description="Connection to the 'data' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=data;Extended Properties=&quot;&quot;" command="SELECT * FROM [data]"/>
-  </connection>
-  <connection id="2" xr16:uid="{7A6048B4-15F3-0D4C-B6C7-3CBD8ADAACCB}" keepAlive="1" name="Query - data (2)" description="Connection to the 'data (2)' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;data (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [data (2)]"/>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="146">
   <si>
     <t>Document Date</t>
   </si>
@@ -79,6 +69,9 @@
     <t>Tax Inclusive Amount</t>
   </si>
   <si>
+    <t>Tax_Code</t>
+  </si>
+  <si>
     <t>Bank Code</t>
   </si>
   <si>
@@ -100,430 +93,403 @@
     <t>Opening Balance</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>BS-500</t>
+  </si>
+  <si>
+    <t>40577</t>
+  </si>
+  <si>
+    <t>3/1/2011</t>
+  </si>
+  <si>
+    <t>IS Communications</t>
+  </si>
+  <si>
+    <t>Invoice EXP22</t>
+  </si>
+  <si>
+    <t>Internet Service Provider</t>
+  </si>
+  <si>
+    <t>IS-380</t>
+  </si>
+  <si>
+    <t>3/31/2011</t>
+  </si>
+  <si>
+    <t>3/2/2011</t>
+  </si>
+  <si>
+    <t>Newscorp</t>
+  </si>
+  <si>
+    <t>381119</t>
+  </si>
+  <si>
+    <t>Subscriptions</t>
+  </si>
+  <si>
+    <t>IS-375</t>
+  </si>
+  <si>
+    <t>40547</t>
+  </si>
+  <si>
+    <t>3/5/2011</t>
+  </si>
+  <si>
+    <t>EAG Brokers</t>
+  </si>
+  <si>
+    <t>Debit Order</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>IS-340</t>
+  </si>
+  <si>
+    <t>40666</t>
+  </si>
+  <si>
+    <t>3/15/2011</t>
+  </si>
+  <si>
+    <t>Capital Bank</t>
+  </si>
+  <si>
+    <t>Bank Statement</t>
+  </si>
+  <si>
+    <t>Service Fees</t>
+  </si>
+  <si>
+    <t>IS-315</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>IAS Accountants</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Bookkeeping</t>
+  </si>
+  <si>
+    <t>IS-305</t>
+  </si>
+  <si>
+    <t>40578</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Sum of Tax Inclusive Amount</t>
+  </si>
+  <si>
+    <t>Interflora</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Flowers</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>IS-345</t>
+  </si>
+  <si>
+    <t>3/18/2011</t>
+  </si>
+  <si>
+    <t>QQ International</t>
+  </si>
+  <si>
+    <t>TR6998</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>IS-390</t>
+  </si>
+  <si>
+    <t>3/20/2011</t>
+  </si>
+  <si>
+    <t>Example (Pty) Ltd</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>Inter Account Transfer</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>BS-399</t>
+  </si>
+  <si>
+    <t>3/26/2011</t>
+  </si>
+  <si>
+    <t>Payroll</t>
+  </si>
+  <si>
+    <t>Salaries</t>
+  </si>
+  <si>
+    <t>IS-365</t>
+  </si>
+  <si>
+    <t>HP Finance</t>
+  </si>
+  <si>
+    <t>Capital repayment</t>
+  </si>
+  <si>
+    <t>BS-700</t>
+  </si>
+  <si>
+    <t>Interest paid</t>
+  </si>
+  <si>
+    <t>IS-500</t>
+  </si>
+  <si>
+    <t>4/15/2011</t>
+  </si>
+  <si>
+    <t>PR Properties</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>IS-350</t>
+  </si>
+  <si>
+    <t>4/20/2011</t>
+  </si>
+  <si>
+    <t>Petty Cash Reimbursement</t>
+  </si>
+  <si>
+    <t>4/25/2011</t>
+  </si>
+  <si>
+    <t>4/26/2011</t>
+  </si>
+  <si>
+    <t>4/1/2011</t>
+  </si>
+  <si>
+    <t>Invoice EXP23</t>
+  </si>
+  <si>
+    <t>4/29/2011</t>
+  </si>
+  <si>
+    <t>4/5/2011</t>
+  </si>
+  <si>
+    <t>4/30/2011</t>
+  </si>
+  <si>
+    <t>4/12/2011</t>
+  </si>
+  <si>
+    <t>Inland Revenue</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Sales Tax</t>
+  </si>
+  <si>
+    <t>BS-600</t>
+  </si>
+  <si>
+    <t>Furniture City</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>BS-100</t>
+  </si>
+  <si>
+    <t>5/26/2011</t>
+  </si>
+  <si>
+    <t>5/15/2011</t>
+  </si>
+  <si>
+    <t>5/20/2011</t>
+  </si>
+  <si>
+    <t>GF Supplies</t>
+  </si>
+  <si>
+    <t>IN1179</t>
+  </si>
+  <si>
+    <t>Consumables</t>
+  </si>
+  <si>
+    <t>IS-325</t>
+  </si>
+  <si>
+    <t>5/29/2011</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>5/1/2011</t>
+  </si>
+  <si>
+    <t>Invoice EXP24</t>
+  </si>
+  <si>
+    <t>5/31/2011</t>
+  </si>
+  <si>
+    <t>Training Inc</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>IS-385</t>
+  </si>
+  <si>
+    <t>5/5/2011</t>
+  </si>
+  <si>
+    <t>5/7/2011</t>
+  </si>
+  <si>
+    <t>City Lodge</t>
+  </si>
+  <si>
+    <t>S50037</t>
+  </si>
+  <si>
+    <t>Accommodation</t>
+  </si>
+  <si>
+    <t>Waltons</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>IS-370</t>
+  </si>
+  <si>
     <t>5,100.00</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>BS-500</t>
-  </si>
-  <si>
-    <t>3/2/2011</t>
-  </si>
-  <si>
-    <t>3/1/2011</t>
-  </si>
-  <si>
-    <t>IS Communications</t>
-  </si>
-  <si>
-    <t>Invoice EXP22</t>
-  </si>
-  <si>
-    <t>Internet Service Provider</t>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>1,000.00</t>
+  </si>
+  <si>
+    <t>4/2/2011</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>-15,000.00</t>
+  </si>
+  <si>
+    <t>15,000.00</t>
+  </si>
+  <si>
+    <t>13,000.00</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>6,400.00</t>
+  </si>
+  <si>
+    <t>-100.00</t>
   </si>
   <si>
     <t>179.00</t>
   </si>
   <si>
-    <t>IS-380</t>
-  </si>
-  <si>
-    <t>3/31/2011</t>
-  </si>
-  <si>
-    <t>Newscorp</t>
-  </si>
-  <si>
-    <t>381119</t>
-  </si>
-  <si>
-    <t>Subscriptions</t>
-  </si>
-  <si>
-    <t>IS-375</t>
-  </si>
-  <si>
-    <t>4/1/2011</t>
-  </si>
-  <si>
-    <t>3/5/2011</t>
-  </si>
-  <si>
-    <t>EAG Brokers</t>
-  </si>
-  <si>
-    <t>Debit Order</t>
-  </si>
-  <si>
-    <t>Insurance</t>
-  </si>
-  <si>
-    <t>340.00</t>
-  </si>
-  <si>
-    <t>IS-340</t>
-  </si>
-  <si>
-    <t>3/15/2011</t>
-  </si>
-  <si>
-    <t>Capital Bank</t>
-  </si>
-  <si>
-    <t>Bank Statement</t>
-  </si>
-  <si>
-    <t>Service Fees</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>IS-315</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>IAS Accountants</t>
-  </si>
-  <si>
-    <t>Invoice</t>
-  </si>
-  <si>
-    <t>Bookkeeping</t>
-  </si>
-  <si>
-    <t>1,000.00</t>
-  </si>
-  <si>
-    <t>IS-305</t>
-  </si>
-  <si>
-    <t>4/2/2011</t>
-  </si>
-  <si>
-    <t>Interflora</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Flowers</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>IS-345</t>
-  </si>
-  <si>
-    <t>3/18/2011</t>
-  </si>
-  <si>
-    <t>QQ International</t>
-  </si>
-  <si>
-    <t>TR6998</t>
-  </si>
-  <si>
-    <t>Parking</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>IS-390</t>
-  </si>
-  <si>
-    <t>3/20/2011</t>
-  </si>
-  <si>
-    <t>Example (Pty) Ltd</t>
-  </si>
-  <si>
-    <t>Transfer</t>
-  </si>
-  <si>
-    <t>Inter Account Transfer</t>
-  </si>
-  <si>
-    <t>-15,000.00</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>BS-399</t>
-  </si>
-  <si>
-    <t>15,000.00</t>
-  </si>
-  <si>
-    <t>3/26/2011</t>
-  </si>
-  <si>
-    <t>Payroll</t>
-  </si>
-  <si>
-    <t>Salaries</t>
-  </si>
-  <si>
-    <t>13,000.00</t>
-  </si>
-  <si>
-    <t>IS-365</t>
-  </si>
-  <si>
-    <t>HP Finance</t>
-  </si>
-  <si>
-    <t>Capital repayment</t>
-  </si>
-  <si>
-    <t>220.00</t>
-  </si>
-  <si>
-    <t>BS-700</t>
-  </si>
-  <si>
-    <t>Interest paid</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>IS-500</t>
-  </si>
-  <si>
-    <t>PR Properties</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>6,400.00</t>
-  </si>
-  <si>
-    <t>IS-350</t>
-  </si>
-  <si>
-    <t>Petty Cash Reimbursement</t>
-  </si>
-  <si>
-    <t>-100.00</t>
-  </si>
-  <si>
-    <t>Invoice EXP23</t>
-  </si>
-  <si>
-    <t>5/1/2011</t>
-  </si>
-  <si>
-    <t>4/5/2011</t>
-  </si>
-  <si>
-    <t>4/12/2011</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
-    <t>4/15/2011</t>
-  </si>
-  <si>
     <t>80.00</t>
   </si>
   <si>
     <t>5/3/2011</t>
   </si>
   <si>
-    <t>4/20/2011</t>
-  </si>
-  <si>
     <t>-20,000.00</t>
   </si>
   <si>
     <t>20,000.00</t>
   </si>
   <si>
-    <t>4/25/2011</t>
-  </si>
-  <si>
-    <t>Inland Revenue</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Sales Tax</t>
-  </si>
-  <si>
     <t>1,300.00</t>
   </si>
   <si>
-    <t>BS-600</t>
-  </si>
-  <si>
-    <t>4/26/2011</t>
-  </si>
-  <si>
-    <t>Furniture City</t>
-  </si>
-  <si>
-    <t>Furniture</t>
-  </si>
-  <si>
     <t>3,000.00</t>
   </si>
   <si>
-    <t>BS-100</t>
-  </si>
-  <si>
-    <t>5/26/2011</t>
-  </si>
-  <si>
-    <t>4/29/2011</t>
-  </si>
-  <si>
-    <t>GF Supplies</t>
-  </si>
-  <si>
-    <t>IN1179</t>
-  </si>
-  <si>
-    <t>Consumables</t>
-  </si>
-  <si>
     <t>41.00</t>
   </si>
   <si>
-    <t>IS-325</t>
-  </si>
-  <si>
-    <t>5/29/2011</t>
-  </si>
-  <si>
-    <t>4/30/2011</t>
-  </si>
-  <si>
-    <t>Invoice EXP24</t>
-  </si>
-  <si>
-    <t>5/31/2011</t>
-  </si>
-  <si>
-    <t>Training Inc</t>
-  </si>
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>IS-385</t>
-  </si>
-  <si>
-    <t>5/5/2011</t>
-  </si>
-  <si>
-    <t>5/7/2011</t>
-  </si>
-  <si>
-    <t>City Lodge</t>
-  </si>
-  <si>
-    <t>S50037</t>
-  </si>
-  <si>
-    <t>Accommodation</t>
-  </si>
-  <si>
     <t>563.00</t>
   </si>
   <si>
-    <t>Waltons</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
     <t>982.00</t>
   </si>
   <si>
-    <t>IS-370</t>
-  </si>
-  <si>
     <t>6/6/2011</t>
   </si>
   <si>
-    <t>5/15/2011</t>
-  </si>
-  <si>
     <t>6/2/2011</t>
-  </si>
-  <si>
-    <t>5/20/2011</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Tax_Code</t>
-  </si>
-  <si>
-    <t>Sum of Tax Inclusive Amount</t>
-  </si>
-  <si>
-    <t>40577</t>
-  </si>
-  <si>
-    <t>40546</t>
-  </si>
-  <si>
-    <t>40547</t>
-  </si>
-  <si>
-    <t>40666</t>
-  </si>
-  <si>
-    <t>40578</t>
-  </si>
-  <si>
-    <t>40548</t>
-  </si>
-  <si>
-    <t>40667</t>
-  </si>
-  <si>
-    <t>40881</t>
-  </si>
-  <si>
-    <t>40607</t>
-  </si>
-  <si>
-    <t>40668</t>
-  </si>
-  <si>
-    <t>40729</t>
-  </si>
-  <si>
-    <t>40700</t>
-  </si>
-  <si>
-    <t>40580</t>
   </si>
 </sst>
 </file>
@@ -531,9 +497,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="&quot;₹&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -545,14 +511,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -578,19 +537,19 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,25 +599,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Account Code 1">
+            <xdr:cNvPr id="3" name="Account Code">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3670A856-589B-A049-2C27-92AA2D876B67}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBDD4EEE-D2D2-4442-106F-2A9199FF0F2C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -670,12 +629,12 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Account Code 1"/>
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Account Code"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -685,8 +644,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15506700" y="177800"/>
-              <a:ext cx="1828800" cy="5257800"/>
+              <a:off x="16662400" y="50800"/>
+              <a:ext cx="1828800" cy="5486400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -720,7 +679,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="aaa" refreshedDate="45793.75727303241" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="48" xr:uid="{536170FC-6460-6645-B319-2D34CB6AB8A8}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="aaa" refreshedDate="45794.581622337966" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="48" xr:uid="{05DEAE64-E125-DC4E-B63B-6E010706EC49}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I49" sheet="data"/>
   </cacheSource>
@@ -728,26 +687,26 @@
     <cacheField name="Document Date" numFmtId="0">
       <sharedItems containsBlank="1" count="25">
         <s v="2/14/2011"/>
-        <s v="40546"/>
-        <s v="40577"/>
-        <s v="40666"/>
+        <s v="3/1/2011"/>
+        <s v="3/2/2011"/>
+        <s v="3/5/2011"/>
         <s v="3/15/2011"/>
         <s v="3/18/2011"/>
         <s v="3/20/2011"/>
         <s v="3/26/2011"/>
         <s v="3/31/2011"/>
-        <s v="40547"/>
-        <s v="40667"/>
-        <s v="40881"/>
+        <s v="4/1/2011"/>
+        <s v="4/5/2011"/>
+        <s v="4/12/2011"/>
         <s v="4/15/2011"/>
         <s v="4/20/2011"/>
         <s v="4/25/2011"/>
         <s v="4/26/2011"/>
         <s v="4/29/2011"/>
         <s v="4/30/2011"/>
-        <s v="40548"/>
-        <s v="40668"/>
-        <s v="40729"/>
+        <s v="5/1/2011"/>
+        <s v="5/5/2011"/>
+        <s v="5/7/2011"/>
         <s v="5/15/2011"/>
         <s v="5/20/2011"/>
         <s v="5/26/2011"/>
@@ -801,7 +760,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="408908963"/>
+      <x14:pivotCacheDefinition pivotCacheId="1109384947"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -1341,35 +1300,35 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5125CF7-5D05-2243-8307-A886A90092B4}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="K8:L12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69963C27-1C8A-8E49-9898-8BB630004D30}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L9:M14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
       <items count="26">
         <item x="0"/>
+        <item x="1"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="2"/>
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="11"/>
         <item x="12"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
-        <item x="1"/>
-        <item x="9"/>
+        <item x="10"/>
         <item x="18"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="11"/>
         <item x="21"/>
         <item x="22"/>
         <item x="23"/>
+        <item x="19"/>
+        <item x="20"/>
         <item x="24"/>
         <item t="default"/>
       </items>
@@ -1400,7 +1359,7 @@
         <item h="1" x="16"/>
         <item x="7"/>
         <item h="1" x="11"/>
-        <item h="1" x="18"/>
+        <item x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1409,15 +1368,18 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="5">
     <i>
-      <x v="2"/>
+      <x v="3"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
     </i>
     <i t="grand">
       <x/>
@@ -1441,41 +1403,13 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00527F1C-9383-B54E-8FC8-0AA05116C5C2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="10">
-    <queryTableFields count="9">
-      <queryTableField id="1" name="Document Date" tableColumnId="1"/>
-      <queryTableField id="2" name="Supplier" tableColumnId="2"/>
-      <queryTableField id="3" name="Reference" tableColumnId="3"/>
-      <queryTableField id="4" name="Description" tableColumnId="4"/>
-      <queryTableField id="5" name="Tax Inclusive Amount" tableColumnId="5"/>
-      <queryTableField id="6" name="Tax_Code" tableColumnId="6"/>
-      <queryTableField id="7" name="Bank Code" tableColumnId="7"/>
-      <queryTableField id="8" name="Account Code" tableColumnId="8"/>
-      <queryTableField id="9" name="Payment Date" tableColumnId="9"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{9EB0F01E-91E0-1145-AC63-278ABF404995}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" name="Supplier" tableColumnId="1"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Account_Code1" xr10:uid="{6B5B0A56-DAD1-7E4C-A019-E884376A8923}" sourceName="Account Code">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Account_Code" xr10:uid="{D4EF9DF0-9C66-F548-A36C-4BE7E3C7A0FE}" sourceName="Account Code">
   <pivotTables>
-    <pivotTable tabId="5" name="PivotTable1"/>
+    <pivotTable tabId="5" name="PivotTable2"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="408908963">
+    <tabular pivotCacheId="1109384947">
       <items count="19">
         <i x="14"/>
         <i x="8"/>
@@ -1495,7 +1429,7 @@
         <i x="16"/>
         <i x="7" s="1"/>
         <i x="11"/>
-        <i x="18" nd="1"/>
+        <i x="18" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -1504,33 +1438,33 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Account Code 1" xr10:uid="{C267909D-AB9A-F84D-BE32-9E7BEF60940C}" cache="Slicer_Account_Code1" caption="Account Code" startItem="2" rowHeight="251883"/>
+  <slicer name="Account Code" xr10:uid="{A760D9BC-3D60-7641-8B5F-58024E951F3D}" cache="Slicer_Account_Code" caption="Account Code" rowHeight="251883"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3971CFF-690E-E04C-862E-47DB967B9647}" name="data" displayName="data" ref="A1:I48" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I48" xr:uid="{A3971CFF-690E-E04C-862E-47DB967B9647}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="data" displayName="data" ref="A1:I48" totalsRowShown="0">
+  <autoFilter ref="A1:I48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{06AD168C-38D9-7B4B-A96D-9E7BEDCF2BB9}" uniqueName="1" name="Document Date" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{2EC68AC0-72C7-E24F-BC70-1A073EB8DEBD}" uniqueName="2" name="Supplier" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4E1D4C6B-F961-7B4A-9963-810E3C0A9E94}" uniqueName="3" name="Reference" queryTableFieldId="3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{6ECC861F-95B8-8D45-8DCF-31DDD1FED18D}" uniqueName="4" name="Description" queryTableFieldId="4" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{BD5F4FF7-E3BA-0C46-A3A3-D5EFCD63D7F7}" uniqueName="5" name="Tax Inclusive Amount" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{66770C66-0785-7543-A0C8-F8DEFE38171A}" uniqueName="6" name="Tax_Code" queryTableFieldId="6" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{4FC1C479-FE19-0C4C-9C4B-0167BB3190D0}" uniqueName="7" name="Bank Code" queryTableFieldId="7" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{B3047582-DE74-A841-BE02-A1C084B4BE05}" uniqueName="8" name="Account Code" queryTableFieldId="8" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{FAA57B89-F6B1-1043-A629-8E684118374F}" uniqueName="9" name="Payment Date" queryTableFieldId="9" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Document Date" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Supplier" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Reference" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tax Inclusive Amount"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Tax_Code" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Bank Code" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Account Code" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Payment Date" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B16189D8-6AC3-704B-9E12-8CAC4CCA280B}" name="data__2" displayName="data__2" ref="A1:A18" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:A18" xr:uid="{B16189D8-6AC3-704B-9E12-8CAC4CCA280B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="data__2" displayName="data__2" ref="A1:A18" totalsRowShown="0">
+  <autoFilter ref="A1:A18" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4AB84C81-6893-9143-B7BC-5993E53546A1}" uniqueName="1" name="Supplier" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Supplier" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1857,29 +1791,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6E6DB9-213E-2B42-B2A5-0450E68AAC49}">
-  <dimension ref="A1:L48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="11" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1896,30 +1830,30 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>5100</v>
@@ -1934,12 +1868,12 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -1960,15 +1894,15 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>141</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -1992,12 +1926,12 @@
         <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -2018,13 +1952,13 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2047,13 +1981,13 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -2073,27 +2007,27 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
       <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
       </c>
       <c r="E8">
         <v>1000</v>
@@ -2105,30 +2039,24 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>145</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="L8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
         <v>49</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
       </c>
       <c r="E9">
         <v>90</v>
@@ -2137,33 +2065,33 @@
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
         <v>55</v>
       </c>
-      <c r="L9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
       </c>
       <c r="E10">
         <v>200</v>
@@ -2175,187 +2103,197 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="I10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L10">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
         <v>61</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
       </c>
       <c r="E11">
         <v>-15000</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="6">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
         <v>61</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L11">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
       </c>
       <c r="E12">
         <v>15000</v>
       </c>
       <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" s="6">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
         <v>66</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L12">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>71</v>
       </c>
       <c r="E13">
         <v>13000</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>220</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E15">
         <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E16">
         <v>6400</v>
@@ -2367,79 +2305,79 @@
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E17">
         <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E18">
         <v>-100</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -2454,15 +2392,15 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -2483,24 +2421,24 @@
         <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
       </c>
       <c r="E21">
         <v>87</v>
@@ -2509,18 +2447,18 @@
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I21" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -2541,15 +2479,15 @@
         <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -2567,27 +2505,27 @@
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
         <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>45</v>
       </c>
       <c r="E24">
         <v>1000</v>
@@ -2599,140 +2537,140 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I24" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E25">
         <v>-20000</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E26">
         <v>20000</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E27">
         <v>1300</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="I27" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E28">
         <v>20000</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I28" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E29">
         <v>3000</v>
@@ -2744,82 +2682,82 @@
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I29" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E30">
         <v>220</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I30" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E31">
         <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
       </c>
       <c r="H31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" t="s">
         <v>80</v>
-      </c>
-      <c r="I31" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E32">
         <v>6400</v>
@@ -2831,24 +2769,24 @@
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E33">
         <v>41</v>
@@ -2857,82 +2795,82 @@
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="I33" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E34">
         <v>100</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I34" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E35">
         <v>-100</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I35" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
         <v>20</v>
@@ -2947,24 +2885,24 @@
         <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E37">
         <v>220</v>
@@ -2976,15 +2914,15 @@
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="I37" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
         <v>30</v>
@@ -3005,24 +2943,24 @@
         <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I38" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E39">
         <v>563</v>
@@ -3034,24 +2972,24 @@
         <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I39" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E40">
         <v>982</v>
@@ -3063,15 +3001,15 @@
         <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I40" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
@@ -3092,15 +3030,15 @@
         <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I41" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
         <v>36</v>
@@ -3118,27 +3056,27 @@
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I42" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
         <v>43</v>
-      </c>
-      <c r="C43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" t="s">
-        <v>45</v>
       </c>
       <c r="E43">
         <v>1000</v>
@@ -3150,155 +3088,155 @@
         <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I43" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E44">
         <v>-20000</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E45">
         <v>20000</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G45" t="s">
         <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I45" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E46">
         <v>20000</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H46" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I46" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
         <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E47">
         <v>220</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I47" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
         <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E48">
         <v>100</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G48" t="s">
         <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I48" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3318,14 +3256,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E39EABA-6BDA-0D48-AEC3-E2B9BD4781B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -3335,7 +3273,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -3360,62 +3298,62 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3427,11 +3365,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3440,13 +3378,13 @@
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="13" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -3462,37 +3400,37 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>139</v>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -3504,7 +3442,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L2" s="4"/>
     </row>
@@ -3521,7 +3459,7 @@
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="1">
         <v>179</v>
       </c>
       <c r="F3" t="s">
@@ -3531,16 +3469,16 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
         <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
       </c>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -3551,7 +3489,7 @@
       <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="1">
         <v>478</v>
       </c>
       <c r="F4" t="s">
@@ -3564,14 +3502,14 @@
         <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4">
         <f>SUM(E2:E14)</f>
         <v>657</v>
       </c>
-      <c r="M4" s="5"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3586,17 +3524,17 @@
       <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
         <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
@@ -3615,17 +3553,17 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
         <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
       </c>
       <c r="I6" t="s">
         <v>35</v>
@@ -3644,17 +3582,17 @@
       <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>41</v>
+      <c r="E7" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
         <v>35</v>
@@ -3665,28 +3603,28 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="L8" s="4"/>
     </row>
@@ -3695,25 +3633,25 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
         <v>49</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="H9" t="s">
         <v>52</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" t="s">
-        <v>54</v>
       </c>
       <c r="I9" t="s">
         <v>35</v>
@@ -3722,193 +3660,193 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>60</v>
-      </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
         <v>61</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" t="s">
         <v>62</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
         <v>63</v>
       </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
-      </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
         <v>61</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" t="s">
         <v>62</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
         <v>63</v>
       </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
-      </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" t="s">
         <v>62</v>
       </c>
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -3917,102 +3855,102 @@
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
         <v>21</v>
       </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>22</v>
-      </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -4023,54 +3961,54 @@
       <c r="D20" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
         <v>33</v>
       </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
       <c r="I20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>50</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>53</v>
-      </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -4081,8 +4019,8 @@
       <c r="D22" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>93</v>
+      <c r="E22" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
@@ -4091,15 +4029,15 @@
         <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -4110,182 +4048,182 @@
       <c r="D23" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>41</v>
+      <c r="E23" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
         <v>43</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
         <v>44</v>
       </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" t="s">
         <v>62</v>
       </c>
-      <c r="C25" t="s">
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" t="s">
         <v>63</v>
       </c>
-      <c r="D25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" t="s">
-        <v>67</v>
-      </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" t="s">
         <v>62</v>
       </c>
-      <c r="C26" t="s">
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
         <v>63</v>
       </c>
-      <c r="D26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" t="s">
-        <v>67</v>
-      </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>102</v>
+        <v>89</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="I27" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" t="s">
         <v>62</v>
       </c>
-      <c r="C28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" t="s">
-        <v>66</v>
-      </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I28" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>107</v>
+        <v>92</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -4294,85 +4232,85 @@
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I29" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I30" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
       </c>
       <c r="H31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" t="s">
         <v>80</v>
-      </c>
-      <c r="I31" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -4381,143 +4319,143 @@
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>114</v>
+        <v>99</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="I33" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
       </c>
       <c r="D34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" t="s">
         <v>85</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" t="s">
-        <v>67</v>
-      </c>
-      <c r="I34" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
       </c>
       <c r="D35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" t="s">
         <v>85</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
         <v>21</v>
       </c>
-      <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" t="s">
-        <v>22</v>
-      </c>
       <c r="I36" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>76</v>
+        <v>108</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
@@ -4526,15 +4464,15 @@
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="I37" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
         <v>30</v>
@@ -4545,37 +4483,37 @@
       <c r="D38" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
         <v>33</v>
       </c>
-      <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" t="s">
-        <v>34</v>
-      </c>
       <c r="I38" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>128</v>
+        <v>114</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
@@ -4584,27 +4522,27 @@
         <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I39" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>131</v>
+        <v>116</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
@@ -4613,15 +4551,15 @@
         <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I40" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
@@ -4632,8 +4570,8 @@
       <c r="D41" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>93</v>
+      <c r="E41" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -4642,15 +4580,15 @@
         <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I41" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
         <v>36</v>
@@ -4661,200 +4599,200 @@
       <c r="D42" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>41</v>
+      <c r="E42" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I42" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
         <v>43</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
         <v>44</v>
       </c>
-      <c r="D43" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
       <c r="I43" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44" t="s">
         <v>62</v>
       </c>
-      <c r="C44" t="s">
+      <c r="G44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s">
         <v>63</v>
       </c>
-      <c r="D44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="6" t="s">
+      <c r="I44" t="s">
         <v>96</v>
-      </c>
-      <c r="F44" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" t="s">
-        <v>42</v>
-      </c>
-      <c r="H44" t="s">
-        <v>67</v>
-      </c>
-      <c r="I44" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" t="s">
         <v>62</v>
       </c>
-      <c r="C45" t="s">
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
         <v>63</v>
       </c>
-      <c r="D45" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" t="s">
-        <v>67</v>
-      </c>
       <c r="I45" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" t="s">
         <v>62</v>
       </c>
-      <c r="C46" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F46" t="s">
-        <v>66</v>
-      </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H46" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I46" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
         <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I47" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
         <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G48" t="s">
         <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I48" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:I2 A1:E1 G1:I1 A5:I48 A4:D4 F4:I4 A3:D3 F3:I3" numberStoredAsText="1"/>
+    <ignoredError sqref="F3:I4 A3:D4 A5:I48 G1:I1 A1:E1 A2:I2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>